--- a/BalanceSheet/ITW_bal.xlsx
+++ b/BalanceSheet/ITW_bal.xlsx
@@ -507,19 +507,19 @@
         <v>1292000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>1219000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>64000000.0</v>
+        <v>1149000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>34000000.0</v>
+        <v>1167000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-48000000.0</v>
+        <v>1185000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>67000000.0</v>
+        <v>1189000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1209000000.0</v>
@@ -1913,19 +1913,19 @@
         <v>589000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>99000000.0</v>
+        <v>521000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-93000000.0</v>
+        <v>402000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>17000000.0</v>
+        <v>488000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-31000000.0</v>
+        <v>472000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>493000000.0</v>
@@ -3154,19 +3154,19 @@
         <v>637000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>162000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>5000000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>17000000.0</v>
+        <v>222000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>716000000.0</v>
@@ -4803,10 +4803,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>5465000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>5746000000.0</v>
@@ -4932,10 +4930,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>7949000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>8310000000.0</v>
